--- a/ModelMetrics.xlsx
+++ b/ModelMetrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Docs\University\Year 4\Individual Project\Assisstments_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6AF56D-EAAD-4A5C-9F6E-E7911D64DE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63634DBA-B6DD-4C6A-A8AF-4CE8395ECAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{AEFA4551-E032-48FC-9A86-994B22B72181}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t xml:space="preserve">      Model       </t>
   </si>
@@ -46,21 +46,6 @@
     <t xml:space="preserve"> Mean Rank </t>
   </si>
   <si>
-    <t xml:space="preserve">   Random Walk    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Same Skill    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Random Choice   </t>
-  </si>
-  <si>
-    <t>skill_builder</t>
-  </si>
-  <si>
-    <t>non_skill</t>
-  </si>
-  <si>
     <t>ua.base</t>
   </si>
   <si>
@@ -70,28 +55,55 @@
     <t xml:space="preserve">Model       </t>
   </si>
   <si>
-    <t xml:space="preserve">  Neural Network  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Random      </t>
-  </si>
-  <si>
     <t>ASSISTMENT</t>
   </si>
   <si>
     <t>MovieLens</t>
   </si>
   <si>
-    <t>URW</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>Neural Network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random      </t>
+    <t xml:space="preserve">     URW       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Random     </t>
+  </si>
+  <si>
+    <t>skill_builder Train</t>
+  </si>
+  <si>
+    <t>skill_builder test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Model      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> train </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      URW       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neural Network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Random     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test </t>
   </si>
 </sst>
 </file>
@@ -127,16 +139,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,15 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F65B412-AD6C-44C0-9AC0-2584FF056900}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:S26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.47265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.20703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.41796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.15625" bestFit="1" customWidth="1"/>
@@ -468,19 +489,21 @@
     <col min="9" max="9" width="10.41796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.20703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3671875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.3671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44641</v>
       </c>
@@ -505,90 +528,84 @@
       <c r="I2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="D3">
+        <v>178.70859999999999</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>4.2</v>
-      </c>
-      <c r="D3">
-        <v>335.55</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
       <c r="H3">
-        <v>3.46</v>
+        <v>84.82</v>
       </c>
       <c r="I3">
-        <v>148.36940000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
+        <v>157.3426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D4">
+        <v>378.22640000000001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>64.08</v>
+      </c>
+      <c r="I4">
+        <v>404.51920000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>5.2</v>
+      </c>
+      <c r="D5">
+        <v>497.39679999999998</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>52.6</v>
+      </c>
+      <c r="I5">
+        <v>503.28559999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>26.6</v>
-      </c>
-      <c r="D4">
-        <v>334.28899999999999</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>343.01580000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
+      <c r="G7" t="s">
         <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1.6</v>
-      </c>
-      <c r="D5">
-        <v>496.64600000000002</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>0.88</v>
-      </c>
-      <c r="I5">
-        <v>497.1028</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>21.9</v>
-      </c>
-      <c r="D6">
-        <v>161.101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>1</v>
@@ -597,9 +614,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -611,230 +628,380 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="I8">
+        <v>178.04179999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>29.34</v>
+      </c>
+      <c r="D9">
+        <v>223.6294</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>20.76</v>
+      </c>
+      <c r="I9">
+        <v>347.63299999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>7.88</v>
+      </c>
+      <c r="D10">
+        <v>386.47300000000001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>11.14</v>
+      </c>
+      <c r="I10">
+        <v>496.71179999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>3.38</v>
+      </c>
+      <c r="D11">
+        <v>505.47460000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="H8">
-        <v>1.6</v>
-      </c>
-      <c r="I8">
-        <v>283.0376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>2.5</v>
-      </c>
-      <c r="D9">
-        <v>347.34100000000001</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <v>3.22</v>
-      </c>
-      <c r="I9">
-        <v>338.61419999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D10">
-        <v>423.42500000000001</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10">
-        <v>1.2</v>
-      </c>
-      <c r="I10">
-        <v>506.05360000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D11">
-        <v>509.19200000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>38.6</v>
+      </c>
+      <c r="D15">
+        <v>175.4684</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="C12">
-        <v>23.8</v>
-      </c>
-      <c r="D12">
-        <v>53.41</v>
-      </c>
-    </row>
-    <row r="19" spans="11:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="K19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="P19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="11:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="K20" s="1"/>
-      <c r="L20" s="2" t="s">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="2" t="s">
+      <c r="D16">
+        <v>259.3252</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="5">
+        <v>84.84</v>
+      </c>
+      <c r="I16" s="5">
+        <v>154.9376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>4.88</v>
+      </c>
+      <c r="D17">
+        <v>505.37819999999999</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="5">
+        <v>63.58</v>
+      </c>
+      <c r="I17" s="5">
+        <v>427.70679999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>31.6</v>
+      </c>
+      <c r="D18">
+        <v>214.08099999999999</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="5">
+        <v>52.76</v>
+      </c>
+      <c r="I18" s="5">
+        <v>504.55239999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="11:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="K21" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21">
-        <v>21.9</v>
-      </c>
-      <c r="N21">
-        <v>161.101</v>
-      </c>
-      <c r="P21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>15</v>
-      </c>
-      <c r="R21">
-        <v>3.46</v>
-      </c>
-      <c r="S21">
-        <v>148.36940000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="11:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="L22" s="4" t="s">
+      <c r="D19">
+        <v>302.34399999999999</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M22">
-        <v>1.6</v>
-      </c>
-      <c r="N22">
-        <v>496.64600000000002</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="H19" s="5">
+        <v>39.92</v>
+      </c>
+      <c r="I19" s="5">
+        <v>175.458</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>3.96</v>
+      </c>
+      <c r="D20">
+        <v>500.90800000000002</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="5">
+        <v>21.22</v>
+      </c>
+      <c r="I20" s="5">
+        <v>403.73739999999998</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+    </row>
+    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="F21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R22">
-        <v>0.88</v>
-      </c>
-      <c r="S22">
-        <v>497.1028</v>
-      </c>
-    </row>
-    <row r="24" spans="11:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="K24" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>2</v>
-      </c>
-      <c r="P24" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>10</v>
-      </c>
-      <c r="R24" t="s">
-        <v>1</v>
-      </c>
-      <c r="S24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="11:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="L25" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25">
-        <v>23.8</v>
-      </c>
-      <c r="N25">
-        <v>53.41</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>15</v>
-      </c>
-      <c r="R25">
-        <v>1.6</v>
-      </c>
-      <c r="S25">
-        <v>283.0376</v>
-      </c>
-    </row>
-    <row r="26" spans="11:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="L26" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N26">
-        <v>509.19200000000001</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>16</v>
-      </c>
-      <c r="R26">
-        <v>1.2</v>
-      </c>
-      <c r="S26">
-        <v>506.05360000000002</v>
-      </c>
-    </row>
+      <c r="H21" s="5">
+        <v>11.52</v>
+      </c>
+      <c r="I21" s="5">
+        <v>500.80540000000002</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="25" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="26" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="27" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="K19:N19"/>
-    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="O19:R19"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:C5">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D5">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C11">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H5 H8:H11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I5 I8:I10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C13 C26:C1048576 G14:G21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D13 D26:D1048576 H14:H21">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>